--- a/LeetCode Patterns.xlsx
+++ b/LeetCode Patterns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sksat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sksat\Downloads\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEE89A-DAF8-4974-B257-32657D3871E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D900737-8A4B-47DD-BB0F-9705821B8D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9821,8 +9821,8 @@
   </sheetPr>
   <dimension ref="A1:AK129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
